--- a/assignment_2/a2_omp.xlsx
+++ b/assignment_2/a2_omp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordilazo/git/high_performance_computing_103084/assignment_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676C091B-448D-E745-8E73-403A2FDCBD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06100CC9-62BD-634E-BB6E-62CB69770EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{F3DE4C77-3FC9-9244-9A20-D284DC5D6663}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Sequencial</t>
   </si>
   <si>
-    <t>Execution time (s)</t>
-  </si>
-  <si>
     <t>6000x4000 (px)</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>600x400 (px)</t>
+  </si>
+  <si>
+    <t>Execution time (s) - OMP</t>
   </si>
 </sst>
 </file>
@@ -3914,7 +3914,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3926,7 +3926,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5">
         <v>453.69</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5">
         <v>113.42</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5">
         <v>4.55</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6">
         <f xml:space="preserve"> $B$3/C3</f>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6">
         <f xml:space="preserve"> $B$4/C4</f>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6">
         <f xml:space="preserve"> $B$5/C5</f>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="8">
         <f>$B$3/($C$2*C3)</f>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="8">
         <f>$B$4/($C$2*C4)</f>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="8">
         <f>$B$5/($C$2*C5)</f>
